--- a/Python_Assignment_5/saucedemo_credentials.xlsx
+++ b/Python_Assignment_5/saucedemo_credentials.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="User_credentials" sheetId="1" state="visible" r:id="rId1"/>
@@ -28,10 +29,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,60 +49,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -183,10 +144,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -224,71 +185,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -312,53 +271,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -368,7 +328,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -377,7 +337,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -386,7 +346,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -394,10 +354,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -426,7 +386,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -439,12 +399,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -464,7 +425,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C5"/>
@@ -473,99 +434,94 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>User ID</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>User Name</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="n">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>standard_user</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>secret_sauce</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="n">
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>locked_out_user</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>secret_sauce</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="2" t="n">
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>problem_user</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>secret_sauce</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="2" t="n">
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>performance_glitch_user</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>secret_sauce</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B5"/>
@@ -574,61 +530,54 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>User ID</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Login Message</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="n">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Epic sadface: Sorry, this user has been locked out.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="2" t="n">
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D7"/>
@@ -637,198 +586,186 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Product ID</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Product Name</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="n">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Sauce Labs Backpack</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>carry.allTheThings() with the sleek, streamlined Sly Pack that melds uncompromising style with unequaled laptop and tablet protection.</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$29.99</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="n">
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Sauce Labs Bike Light</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>A red light isn't the desired state in testing but it sure helps when riding your bike at night. Water-resistant with 3 lighting modes, 1 AAA battery included.</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$9.99</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="2" t="n">
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Sauce Labs Bolt T-Shirt</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Get your testing superhero on with the Sauce Labs bolt T-shirt. From American Apparel, 100% ringspun combed cotton, heather gray with red bolt.</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$15.99</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="2" t="n">
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Sauce Labs Fleece Jacket</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>It's not every day that you come across a midweight quarter-zip fleece jacket capable of handling everything from a relaxing day outdoors to a busy day at the office.</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$49.99</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="2" t="n">
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Sauce Labs Onesie</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Rib snap infant onesie for the junior automation engineer in development. Reinforced 3-snap bottom closure, two-needle hemmed sleeved and bottom won't unravel.</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$7.99</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="2" t="n">
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Test.allTheThings() T-Shirt (Red)</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>This classic Sauce Labs t-shirt is perfect to wear when cozying up to your keyboard to automate a few tests. Super-soft and comfy ringspun combed cotton.</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$15.99</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>User</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Total Price</t>
         </is>
@@ -839,21 +776,21 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>standard_user</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Sauce Labs Bolt T-Shirt</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" t="n">
         <v>15.99</v>
       </c>
       <c r="E2" t="inlineStr">
@@ -862,21 +799,21 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>problem_user</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Sauce Labs Bike Light</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" t="n">
         <v>9.99</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -885,21 +822,21 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>standard_user</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Sauce Labs Bike Light</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" t="n">
         <v>9.99</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -908,21 +845,21 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>problem_user</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Sauce Labs Onesie</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" t="n">
         <v>7.99</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -932,6 +869,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Python_Assignment_5/saucedemo_credentials.xlsx
+++ b/Python_Assignment_5/saucedemo_credentials.xlsx
@@ -818,7 +818,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failure</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failure</t>
         </is>
       </c>
     </row>

--- a/Python_Assignment_5/saucedemo_credentials.xlsx
+++ b/Python_Assignment_5/saucedemo_credentials.xlsx
@@ -548,6 +548,11 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Login Successfully!!</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -563,10 +568,20 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Login Successfully!!</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Login Successfully!!</t>
+        </is>
       </c>
     </row>
   </sheetData>
